--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.27 fix 3</t>
+    <t xml:space="preserve">EA 23.28</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="480">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -1011,6 +1011,12 @@
   </si>
   <si>
     <t xml:space="preserve">dungeon_factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machinarium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機械遺跡</t>
   </si>
   <si>
     <t xml:space="preserve">mine</t>
@@ -1575,10 +1581,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1587,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1603,10 +1609,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1615,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1631,10 +1637,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1652,10 +1658,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1673,10 +1679,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1687,7 +1693,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1701,10 +1707,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1722,10 +1728,10 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1734,7 +1740,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1750,10 +1756,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1771,10 +1777,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1792,10 +1798,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1813,10 +1819,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1825,7 +1831,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1841,10 +1847,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1853,7 +1859,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1869,10 +1875,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -1881,7 +1887,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -1897,10 +1903,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -1909,7 +1915,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -1925,10 +1931,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -1946,10 +1952,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -1958,7 +1964,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -1974,10 +1980,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -1995,10 +2001,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2016,10 +2022,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2037,10 +2043,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2058,10 +2064,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C23" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2079,10 +2085,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2100,10 +2106,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2114,7 +2120,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J25" t="s">
         <v>98</v>
@@ -2128,10 +2134,10 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C26" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -2142,7 +2148,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J26" t="s">
         <v>103</v>
@@ -2156,10 +2162,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C27" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -2170,7 +2176,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
@@ -2184,10 +2190,10 @@
         <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -2205,10 +2211,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C29" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2226,10 +2232,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C30" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2240,7 +2246,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J30" t="s">
         <v>119</v>
@@ -2254,10 +2260,10 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D31" t="s">
         <v>122</v>
@@ -2268,7 +2274,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J31" t="s">
         <v>124</v>
@@ -2282,10 +2288,10 @@
         <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -2303,10 +2309,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C33" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2324,10 +2330,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2345,10 +2351,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2366,10 +2372,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2387,10 +2393,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2401,7 +2407,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2415,10 +2421,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C38" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2436,10 +2442,10 @@
         <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
@@ -2457,10 +2463,10 @@
         <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -2471,7 +2477,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
@@ -2485,10 +2491,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2499,7 +2505,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2513,10 +2519,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2527,7 +2533,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2541,10 +2547,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C43" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2555,7 +2561,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2569,10 +2575,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2583,7 +2589,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2597,10 +2603,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C45" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2611,7 +2617,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2625,10 +2631,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C46" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2639,7 +2645,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2653,10 +2659,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C47" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2667,7 +2673,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2681,10 +2687,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C48" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2695,7 +2701,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2709,10 +2715,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2730,10 +2736,10 @@
         <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C50" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D50" t="s">
         <v>201</v>
@@ -2744,7 +2750,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J50" t="s">
         <v>203</v>
@@ -2758,10 +2764,10 @@
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C51" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D51" t="s">
         <v>206</v>
@@ -2779,10 +2785,10 @@
         <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C52" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D52" t="s">
         <v>209</v>
@@ -2800,10 +2806,10 @@
         <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D53" t="s">
         <v>212</v>
@@ -2814,7 +2820,7 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="J53" t="s">
         <v>214</v>
@@ -2828,10 +2834,10 @@
         <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D54" t="s">
         <v>217</v>
@@ -2849,10 +2855,10 @@
         <v>219</v>
       </c>
       <c r="B55" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D55" t="s">
         <v>220</v>
@@ -2870,10 +2876,10 @@
         <v>222</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C56" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D56" t="s">
         <v>223</v>
@@ -2891,10 +2897,10 @@
         <v>225</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C57" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D57" t="s">
         <v>226</v>
@@ -2912,10 +2918,10 @@
         <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C58" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D58" t="s">
         <v>229</v>
@@ -2933,10 +2939,10 @@
         <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C59" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D59" t="s">
         <v>232</v>
@@ -2954,10 +2960,10 @@
         <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D60" t="s">
         <v>235</v>
@@ -2968,7 +2974,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J60" t="s">
         <v>237</v>
@@ -2982,10 +2988,10 @@
         <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C61" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D61" t="s">
         <v>240</v>
@@ -2996,7 +3002,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J61" t="s">
         <v>242</v>
@@ -3010,10 +3016,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C62" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3031,10 +3037,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3052,10 +3058,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3066,7 +3072,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="J64" t="s">
         <v>253</v>
@@ -3080,10 +3086,10 @@
         <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C65" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D65" t="s">
         <v>256</v>
@@ -3094,7 +3100,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J65" t="s">
         <v>258</v>
@@ -3108,10 +3114,10 @@
         <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C66" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D66" t="s">
         <v>261</v>
@@ -3122,7 +3128,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J66" t="s">
         <v>263</v>
@@ -3136,10 +3142,10 @@
         <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C67" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D67" t="s">
         <v>266</v>
@@ -3157,10 +3163,10 @@
         <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D68" t="s">
         <v>269</v>
@@ -3171,7 +3177,7 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J68" t="s">
         <v>271</v>
@@ -3185,10 +3191,10 @@
         <v>273</v>
       </c>
       <c r="B69" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C69" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D69" t="s">
         <v>274</v>
@@ -3199,7 +3205,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J69" t="s">
         <v>276</v>
@@ -3213,10 +3219,10 @@
         <v>278</v>
       </c>
       <c r="B70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C70" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s">
         <v>274</v>
@@ -3234,10 +3240,10 @@
         <v>279</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C71" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D71" t="s">
         <v>280</v>
@@ -3248,7 +3254,7 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J71" t="s">
         <v>282</v>
@@ -3262,10 +3268,10 @@
         <v>284</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C72" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D72" t="s">
         <v>285</v>
@@ -3283,10 +3289,10 @@
         <v>287</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C73" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D73" t="s">
         <v>288</v>
@@ -3304,10 +3310,10 @@
         <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D74" t="s">
         <v>291</v>
@@ -3318,7 +3324,7 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J74" t="s">
         <v>293</v>
@@ -3332,10 +3338,10 @@
         <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C75" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D75" t="s">
         <v>296</v>
@@ -3353,10 +3359,10 @@
         <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C76" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3374,10 +3380,10 @@
         <v>301</v>
       </c>
       <c r="B77" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C77" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D77" t="s">
         <v>96</v>
@@ -3395,10 +3401,10 @@
         <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D78" t="s">
         <v>96</v>
@@ -3416,10 +3422,10 @@
         <v>303</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C79" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D79" t="s">
         <v>304</v>
@@ -3437,10 +3443,10 @@
         <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C80" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D80" t="s">
         <v>304</v>
@@ -3458,10 +3464,10 @@
         <v>307</v>
       </c>
       <c r="B81" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C81" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D81" t="s">
         <v>308</v>
@@ -3479,10 +3485,10 @@
         <v>310</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C82" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D82" t="s">
         <v>311</v>
@@ -3500,10 +3506,10 @@
         <v>313</v>
       </c>
       <c r="B83" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D83" t="s">
         <v>314</v>
@@ -3521,10 +3527,10 @@
         <v>316</v>
       </c>
       <c r="B84" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C84" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D84" t="s">
         <v>317</v>
@@ -3542,10 +3548,10 @@
         <v>319</v>
       </c>
       <c r="B85" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C85" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D85" t="s">
         <v>320</v>
@@ -3563,10 +3569,10 @@
         <v>322</v>
       </c>
       <c r="B86" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C86" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D86" t="s">
         <v>323</v>
@@ -3584,10 +3590,10 @@
         <v>325</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D87" t="s">
         <v>326</v>
@@ -3605,10 +3611,10 @@
         <v>328</v>
       </c>
       <c r="B88" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D88" t="s">
         <v>329</v>
@@ -3626,16 +3632,16 @@
         <v>331</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D89" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E89" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3644,19 +3650,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C90" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E90" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3665,16 +3671,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D91" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E91" t="s">
         <v>315</v>
@@ -3686,30 +3692,30 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C92" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D92" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E92" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J92" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K92" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="487">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -501,6 +501,21 @@
   </si>
   <si>
     <t xml:space="preserve">とてつもなく巨大な大木がある。妖精たちが軽やかに舞っている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village_exile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village of Atonement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贖罪の村</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You see an abandoned village in the dark forest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暗い森の中に寂れた村がある。</t>
   </si>
   <si>
     <t xml:space="preserve">foxtown</t>
@@ -1587,10 +1602,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1599,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1615,10 +1630,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1627,7 +1642,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1643,10 +1658,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1664,10 +1679,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1685,10 +1700,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1699,7 +1714,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1713,10 +1728,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1734,10 +1749,10 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1746,7 +1761,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1762,10 +1777,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1783,10 +1798,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1804,10 +1819,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1825,10 +1840,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1837,7 +1852,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1853,10 +1868,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1865,7 +1880,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1881,10 +1896,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -1893,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -1909,10 +1924,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -1921,7 +1936,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -1937,10 +1952,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -1958,10 +1973,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -1970,7 +1985,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -1986,10 +2001,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2007,10 +2022,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2028,10 +2043,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2049,10 +2064,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2070,10 +2085,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2091,10 +2106,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C24" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2112,10 +2127,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2126,7 +2141,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="J25" t="s">
         <v>98</v>
@@ -2140,10 +2155,10 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C26" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -2154,7 +2169,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J26" t="s">
         <v>103</v>
@@ -2168,10 +2183,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C27" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -2182,7 +2197,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
@@ -2196,10 +2211,10 @@
         <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -2217,10 +2232,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C29" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2238,10 +2253,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C30" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2252,7 +2267,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="J30" t="s">
         <v>119</v>
@@ -2266,10 +2281,10 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D31" t="s">
         <v>122</v>
@@ -2280,7 +2295,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="J31" t="s">
         <v>124</v>
@@ -2294,10 +2309,10 @@
         <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C32" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -2315,10 +2330,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C33" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2336,10 +2351,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2357,10 +2372,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C35" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2378,10 +2393,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2399,10 +2414,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2413,7 +2428,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2427,10 +2442,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C38" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2448,10 +2463,10 @@
         <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C39" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
@@ -2469,10 +2484,10 @@
         <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -2483,7 +2498,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
@@ -2497,10 +2512,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C41" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2511,7 +2526,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2525,10 +2540,7 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>352</v>
-      </c>
-      <c r="C42" t="s">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2538,9 +2550,6 @@
       </c>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="I42" t="s">
-        <v>463</v>
-      </c>
       <c r="J42" t="s">
         <v>165</v>
       </c>
@@ -2553,10 +2562,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C43" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2567,7 +2576,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2581,10 +2590,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C44" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2595,7 +2604,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2609,10 +2618,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C45" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2623,7 +2632,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2637,10 +2646,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C46" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2651,7 +2660,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2665,10 +2674,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C47" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2679,7 +2688,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2693,10 +2702,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2707,7 +2716,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2721,10 +2730,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C49" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2734,46 +2743,46 @@
       </c>
       <c r="G49"/>
       <c r="H49"/>
-      <c r="J49"/>
-      <c r="K49"/>
+      <c r="I49" t="s">
+        <v>474</v>
+      </c>
+      <c r="J49" t="s">
+        <v>200</v>
+      </c>
+      <c r="K49" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C50" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="I50" t="s">
-        <v>470</v>
-      </c>
-      <c r="J50" t="s">
-        <v>203</v>
-      </c>
-      <c r="K50" t="s">
-        <v>204</v>
-      </c>
+      <c r="J50"/>
+      <c r="K50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D51" t="s">
         <v>206</v>
@@ -2783,24 +2792,31 @@
       </c>
       <c r="G51"/>
       <c r="H51"/>
-      <c r="J51"/>
-      <c r="K51"/>
+      <c r="I51" t="s">
+        <v>475</v>
+      </c>
+      <c r="J51" t="s">
+        <v>208</v>
+      </c>
+      <c r="K51" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C52" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -2809,41 +2825,34 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C53" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
-      <c r="I53" t="s">
-        <v>471</v>
-      </c>
-      <c r="J53" t="s">
-        <v>214</v>
-      </c>
-      <c r="K53" t="s">
-        <v>215</v>
-      </c>
+      <c r="J53"/>
+      <c r="K53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C54" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D54" t="s">
         <v>217</v>
@@ -2853,24 +2862,31 @@
       </c>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="J54"/>
-      <c r="K54"/>
+      <c r="I54" t="s">
+        <v>476</v>
+      </c>
+      <c r="J54" t="s">
+        <v>219</v>
+      </c>
+      <c r="K54" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C55" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
@@ -2879,19 +2895,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C56" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -2900,19 +2916,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C57" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -2921,19 +2937,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C58" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -2942,19 +2958,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C59" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -2963,41 +2979,34 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C60" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D60" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
-      <c r="I60" t="s">
-        <v>472</v>
-      </c>
-      <c r="J60" t="s">
-        <v>237</v>
-      </c>
-      <c r="K60" t="s">
-        <v>238</v>
-      </c>
+      <c r="J60"/>
+      <c r="K60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C61" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D61" t="s">
         <v>240</v>
@@ -3008,7 +3017,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="J61" t="s">
         <v>242</v>
@@ -3022,10 +3031,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3035,24 +3044,31 @@
       </c>
       <c r="G62"/>
       <c r="H62"/>
-      <c r="J62"/>
-      <c r="K62"/>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>247</v>
+      </c>
+      <c r="K62" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C63" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
@@ -3061,41 +3077,34 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C64" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64" t="s">
-        <v>474</v>
-      </c>
-      <c r="J64" t="s">
-        <v>253</v>
-      </c>
-      <c r="K64" t="s">
-        <v>254</v>
-      </c>
+      <c r="J64"/>
+      <c r="K64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C65" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D65" t="s">
         <v>256</v>
@@ -3106,7 +3115,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="J65" t="s">
         <v>258</v>
@@ -3120,10 +3129,10 @@
         <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C66" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D66" t="s">
         <v>261</v>
@@ -3134,7 +3143,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J66" t="s">
         <v>263</v>
@@ -3148,10 +3157,10 @@
         <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C67" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D67" t="s">
         <v>266</v>
@@ -3161,46 +3170,46 @@
       </c>
       <c r="G67"/>
       <c r="H67"/>
-      <c r="J67"/>
-      <c r="K67"/>
+      <c r="I67" t="s">
+        <v>481</v>
+      </c>
+      <c r="J67" t="s">
+        <v>268</v>
+      </c>
+      <c r="K67" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C68" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="I68" t="s">
-        <v>477</v>
-      </c>
-      <c r="J68" t="s">
-        <v>271</v>
-      </c>
-      <c r="K68" t="s">
-        <v>272</v>
-      </c>
+      <c r="J68"/>
+      <c r="K68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>273</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C69" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D69" t="s">
         <v>274</v>
@@ -3211,7 +3220,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="J69" t="s">
         <v>276</v>
@@ -3225,59 +3234,59 @@
         <v>278</v>
       </c>
       <c r="B70" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C70" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="J70"/>
-      <c r="K70"/>
+      <c r="I70" t="s">
+        <v>483</v>
+      </c>
+      <c r="J70" t="s">
+        <v>281</v>
+      </c>
+      <c r="K70" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" t="s">
+        <v>432</v>
+      </c>
+      <c r="D71" t="s">
         <v>279</v>
       </c>
-      <c r="B71" t="s">
-        <v>344</v>
-      </c>
-      <c r="C71" t="s">
-        <v>428</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>280</v>
-      </c>
-      <c r="E71" t="s">
-        <v>281</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71" t="s">
-        <v>479</v>
-      </c>
-      <c r="J71" t="s">
-        <v>282</v>
-      </c>
-      <c r="K71" t="s">
-        <v>283</v>
-      </c>
+      <c r="J71"/>
+      <c r="K71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>284</v>
       </c>
       <c r="B72" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C72" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D72" t="s">
         <v>285</v>
@@ -3287,24 +3296,31 @@
       </c>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="J72"/>
-      <c r="K72"/>
+      <c r="I72" t="s">
+        <v>484</v>
+      </c>
+      <c r="J72" t="s">
+        <v>287</v>
+      </c>
+      <c r="K72" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B73" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C73" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -3313,41 +3329,34 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="I74" t="s">
-        <v>480</v>
-      </c>
-      <c r="J74" t="s">
-        <v>293</v>
-      </c>
-      <c r="K74" t="s">
-        <v>294</v>
-      </c>
+      <c r="J74"/>
+      <c r="K74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C75" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D75" t="s">
         <v>296</v>
@@ -3357,24 +3366,31 @@
       </c>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="J75"/>
-      <c r="K75"/>
+      <c r="I75" t="s">
+        <v>485</v>
+      </c>
+      <c r="J75" t="s">
+        <v>298</v>
+      </c>
+      <c r="K75" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C76" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -3383,19 +3399,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C77" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
@@ -3404,13 +3420,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C78" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D78" t="s">
         <v>96</v>
@@ -3425,19 +3441,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B79" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C79" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="D79" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -3446,19 +3462,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B80" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C80" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D80" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
@@ -3467,19 +3483,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C81" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E81" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3488,19 +3504,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D82" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E82" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3509,19 +3525,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D83" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E83" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
@@ -3530,19 +3546,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C84" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D84" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -3551,19 +3567,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C85" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D85" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E85" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3572,19 +3588,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C86" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D86" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E86" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3593,19 +3609,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D87" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E87" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3614,19 +3630,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C88" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D88" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E88" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3635,19 +3651,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C89" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D89" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E89" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3656,19 +3672,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C90" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D90" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E90" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3677,19 +3693,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C91" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="D91" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E91" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3698,30 +3714,51 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C92" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D92" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E92" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
-      <c r="I92" t="s">
-        <v>481</v>
-      </c>
-      <c r="J92" t="s">
-        <v>342</v>
-      </c>
-      <c r="K92" t="s">
-        <v>343</v>
+      <c r="J92"/>
+      <c r="K92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B93" t="s">
+        <v>351</v>
+      </c>
+      <c r="C93" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93" t="s">
+        <v>486</v>
+      </c>
+      <c r="J93" t="s">
+        <v>347</v>
+      </c>
+      <c r="K93" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="496">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -1005,6 +1005,24 @@
   </si>
   <si>
     <t xml:space="preserve">洞窟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gathering_plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gathering Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">採取地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon_plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">草原</t>
   </si>
   <si>
     <t xml:space="preserve">dungeon_forest</t>
@@ -1611,10 +1629,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1623,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1639,10 +1657,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1651,7 +1669,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1667,10 +1685,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1688,10 +1706,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1709,10 +1727,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1723,7 +1741,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1737,10 +1755,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1758,10 +1776,10 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1770,7 +1788,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1786,10 +1804,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1807,10 +1825,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1828,10 +1846,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1849,10 +1867,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1861,7 +1879,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1877,10 +1895,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1889,7 +1907,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1905,10 +1923,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -1917,7 +1935,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -1933,10 +1951,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -1945,7 +1963,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -1961,10 +1979,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -1982,10 +2000,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C18" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -1994,7 +2012,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2010,10 +2028,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C19" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2031,10 +2049,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2052,10 +2070,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C21" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2073,10 +2091,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2094,10 +2112,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2115,10 +2133,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2136,10 +2154,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2150,7 +2168,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="J25" t="s">
         <v>98</v>
@@ -2164,10 +2182,10 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -2178,7 +2196,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="J26" t="s">
         <v>103</v>
@@ -2192,10 +2210,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -2206,7 +2224,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
@@ -2220,10 +2238,10 @@
         <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C28" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -2241,10 +2259,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C29" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2262,10 +2280,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C30" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2276,7 +2294,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="J30" t="s">
         <v>119</v>
@@ -2290,10 +2308,10 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D31" t="s">
         <v>122</v>
@@ -2304,7 +2322,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="J31" t="s">
         <v>124</v>
@@ -2318,10 +2336,10 @@
         <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C32" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -2339,10 +2357,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2360,10 +2378,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2381,10 +2399,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C35" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2402,10 +2420,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C36" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2423,10 +2441,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2437,7 +2455,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2451,10 +2469,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2472,10 +2490,10 @@
         <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C39" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
@@ -2493,10 +2511,10 @@
         <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C40" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -2507,7 +2525,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
@@ -2521,10 +2539,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2535,7 +2553,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2549,10 +2567,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2563,7 +2581,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2577,10 +2595,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C43" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2591,7 +2609,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2605,10 +2623,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2619,7 +2637,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2633,10 +2651,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C45" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2647,7 +2665,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2661,10 +2679,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C46" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2675,7 +2693,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2689,10 +2707,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C47" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2703,7 +2721,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2717,10 +2735,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C48" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2731,7 +2749,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2745,10 +2763,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C49" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2759,7 +2777,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2773,10 +2791,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C50" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2794,10 +2812,10 @@
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D51" t="s">
         <v>206</v>
@@ -2808,7 +2826,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="J51" t="s">
         <v>208</v>
@@ -2822,10 +2840,10 @@
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C52" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -2843,10 +2861,10 @@
         <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C53" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D53" t="s">
         <v>214</v>
@@ -2864,10 +2882,10 @@
         <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C54" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D54" t="s">
         <v>217</v>
@@ -2878,7 +2896,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="J54" t="s">
         <v>219</v>
@@ -2892,10 +2910,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C55" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -2913,10 +2931,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C56" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -2934,10 +2952,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -2955,10 +2973,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C58" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -2976,10 +2994,10 @@
         <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C59" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D59" t="s">
         <v>234</v>
@@ -2997,10 +3015,10 @@
         <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C60" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D60" t="s">
         <v>237</v>
@@ -3018,10 +3036,10 @@
         <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C61" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D61" t="s">
         <v>240</v>
@@ -3032,7 +3050,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="J61" t="s">
         <v>242</v>
@@ -3046,10 +3064,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C62" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3060,7 +3078,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J62" t="s">
         <v>247</v>
@@ -3074,10 +3092,10 @@
         <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C63" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D63" t="s">
         <v>250</v>
@@ -3095,10 +3113,10 @@
         <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C64" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D64" t="s">
         <v>253</v>
@@ -3116,10 +3134,10 @@
         <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C65" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D65" t="s">
         <v>256</v>
@@ -3130,7 +3148,7 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="J65" t="s">
         <v>258</v>
@@ -3144,10 +3162,10 @@
         <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C66" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D66" t="s">
         <v>261</v>
@@ -3158,7 +3176,7 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J66" t="s">
         <v>263</v>
@@ -3172,10 +3190,10 @@
         <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C67" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D67" t="s">
         <v>266</v>
@@ -3186,7 +3204,7 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="J67" t="s">
         <v>268</v>
@@ -3200,10 +3218,10 @@
         <v>270</v>
       </c>
       <c r="B68" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C68" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D68" t="s">
         <v>271</v>
@@ -3221,10 +3239,10 @@
         <v>273</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C69" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D69" t="s">
         <v>274</v>
@@ -3235,7 +3253,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="J69" t="s">
         <v>276</v>
@@ -3249,10 +3267,10 @@
         <v>278</v>
       </c>
       <c r="B70" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C70" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D70" t="s">
         <v>279</v>
@@ -3263,7 +3281,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="J70" t="s">
         <v>281</v>
@@ -3277,10 +3295,10 @@
         <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C71" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D71" t="s">
         <v>279</v>
@@ -3298,10 +3316,10 @@
         <v>284</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C72" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D72" t="s">
         <v>285</v>
@@ -3312,7 +3330,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="J72" t="s">
         <v>287</v>
@@ -3326,10 +3344,10 @@
         <v>289</v>
       </c>
       <c r="B73" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D73" t="s">
         <v>290</v>
@@ -3347,10 +3365,10 @@
         <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C74" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D74" t="s">
         <v>293</v>
@@ -3368,10 +3386,10 @@
         <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C75" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D75" t="s">
         <v>296</v>
@@ -3382,7 +3400,7 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="J75" t="s">
         <v>298</v>
@@ -3396,10 +3414,10 @@
         <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C76" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D76" t="s">
         <v>301</v>
@@ -3417,10 +3435,10 @@
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C77" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3438,10 +3456,10 @@
         <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C78" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D78" t="s">
         <v>96</v>
@@ -3459,10 +3477,10 @@
         <v>307</v>
       </c>
       <c r="B79" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D79" t="s">
         <v>96</v>
@@ -3480,10 +3498,10 @@
         <v>308</v>
       </c>
       <c r="B80" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C80" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D80" t="s">
         <v>309</v>
@@ -3501,10 +3519,10 @@
         <v>311</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C81" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D81" t="s">
         <v>309</v>
@@ -3522,10 +3540,10 @@
         <v>312</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C82" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D82" t="s">
         <v>313</v>
@@ -3543,10 +3561,10 @@
         <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C83" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D83" t="s">
         <v>316</v>
@@ -3564,10 +3582,10 @@
         <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C84" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D84" t="s">
         <v>319</v>
@@ -3585,10 +3603,10 @@
         <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C85" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D85" t="s">
         <v>322</v>
@@ -3606,10 +3624,10 @@
         <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C86" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D86" t="s">
         <v>325</v>
@@ -3627,10 +3645,10 @@
         <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C87" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D87" t="s">
         <v>328</v>
@@ -3648,10 +3666,7 @@
         <v>330</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
-      </c>
-      <c r="C88" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
         <v>331</v>
@@ -3669,10 +3684,7 @@
         <v>333</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
-      </c>
-      <c r="C89" t="s">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
         <v>334</v>
@@ -3690,10 +3702,10 @@
         <v>336</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C90" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D90" t="s">
         <v>337</v>
@@ -3711,10 +3723,10 @@
         <v>339</v>
       </c>
       <c r="B91" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C91" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D91" t="s">
         <v>340</v>
@@ -3732,16 +3744,16 @@
         <v>342</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="D92" t="s">
         <v>343</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3750,30 +3762,72 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B93" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C93" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E93" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
-      <c r="I93" t="s">
-        <v>489</v>
-      </c>
-      <c r="J93" t="s">
-        <v>347</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="J93"/>
+      <c r="K93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
         <v>348</v>
+      </c>
+      <c r="B94" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" t="s">
+        <v>450</v>
+      </c>
+      <c r="D94" t="s">
+        <v>349</v>
+      </c>
+      <c r="E94" t="s">
+        <v>320</v>
+      </c>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>350</v>
+      </c>
+      <c r="B95" t="s">
+        <v>357</v>
+      </c>
+      <c r="C95" t="s">
+        <v>458</v>
+      </c>
+      <c r="D95" t="s">
+        <v>351</v>
+      </c>
+      <c r="E95" t="s">
+        <v>352</v>
+      </c>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95" t="s">
+        <v>495</v>
+      </c>
+      <c r="J95" t="s">
+        <v>353</v>
+      </c>
+      <c r="K95" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="505">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -782,6 +782,15 @@
     <t xml:space="preserve">イークの洞窟</t>
   </si>
   <si>
+    <t xml:space="preserve">temple_undersea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunken Temple of Lurie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ルーリエ海底神殿</t>
+  </si>
+  <si>
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
@@ -1041,6 +1050,15 @@
   </si>
   <si>
     <t xml:space="preserve">遺跡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dungeon_water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underwater Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底遺跡</t>
   </si>
   <si>
     <t xml:space="preserve">dungeon_factory</t>
@@ -1638,10 +1656,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1650,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1666,10 +1684,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1678,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1694,10 +1712,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1715,10 +1733,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1736,10 +1754,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1750,7 +1768,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1764,10 +1782,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1785,10 +1803,10 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1797,7 +1815,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1813,10 +1831,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1834,10 +1852,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1855,10 +1873,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1876,10 +1894,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1888,7 +1906,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1904,10 +1922,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1916,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1932,10 +1950,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -1944,7 +1962,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -1960,10 +1978,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -1972,7 +1990,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -1988,10 +2006,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -2009,10 +2027,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2021,7 +2039,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2037,10 +2055,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C19" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2058,10 +2076,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2079,10 +2097,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2100,10 +2118,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2121,10 +2139,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2142,10 +2160,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C24" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2163,10 +2181,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2177,7 +2195,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="J25" t="s">
         <v>98</v>
@@ -2191,10 +2209,10 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C26" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -2205,7 +2223,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J26" t="s">
         <v>103</v>
@@ -2219,10 +2237,10 @@
         <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C27" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -2233,7 +2251,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="J27" t="s">
         <v>108</v>
@@ -2247,10 +2265,10 @@
         <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -2268,10 +2286,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2289,10 +2307,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2303,7 +2321,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J30" t="s">
         <v>119</v>
@@ -2317,10 +2335,10 @@
         <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C31" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D31" t="s">
         <v>122</v>
@@ -2331,7 +2349,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="J31" t="s">
         <v>124</v>
@@ -2345,10 +2363,10 @@
         <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C32" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D32" t="s">
         <v>127</v>
@@ -2366,10 +2384,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C33" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2387,10 +2405,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C34" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2408,10 +2426,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2429,10 +2447,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C36" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2450,10 +2468,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C37" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2464,7 +2482,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2478,10 +2496,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2499,10 +2517,10 @@
         <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C39" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
@@ -2520,10 +2538,10 @@
         <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D40" t="s">
         <v>153</v>
@@ -2534,7 +2552,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="J40" t="s">
         <v>155</v>
@@ -2548,10 +2566,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C41" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2562,7 +2580,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2576,10 +2594,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C42" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2590,7 +2608,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2604,10 +2622,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C43" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2618,7 +2636,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2632,10 +2650,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C44" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2646,7 +2664,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2660,10 +2678,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C45" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2674,7 +2692,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2688,10 +2706,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C46" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2702,7 +2720,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2716,10 +2734,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2730,7 +2748,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2744,10 +2762,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2758,7 +2776,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2772,10 +2790,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C49" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2786,7 +2804,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2800,10 +2818,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2821,10 +2839,10 @@
         <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D51" t="s">
         <v>206</v>
@@ -2835,7 +2853,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="J51" t="s">
         <v>208</v>
@@ -2849,10 +2867,10 @@
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C52" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -2870,10 +2888,10 @@
         <v>213</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D53" t="s">
         <v>214</v>
@@ -2891,10 +2909,10 @@
         <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C54" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D54" t="s">
         <v>217</v>
@@ -2905,7 +2923,7 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="J54" t="s">
         <v>219</v>
@@ -2919,10 +2937,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C55" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -2940,10 +2958,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -2961,10 +2979,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C57" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -2982,10 +3000,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C58" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3003,10 +3021,10 @@
         <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D59" t="s">
         <v>234</v>
@@ -3024,10 +3042,10 @@
         <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C60" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D60" t="s">
         <v>237</v>
@@ -3045,10 +3063,10 @@
         <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C61" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D61" t="s">
         <v>240</v>
@@ -3059,7 +3077,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="J61" t="s">
         <v>242</v>
@@ -3073,10 +3091,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3087,7 +3105,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="J62" t="s">
         <v>247</v>
@@ -3101,10 +3119,10 @@
         <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D63" t="s">
         <v>250</v>
@@ -3122,10 +3140,10 @@
         <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D64" t="s">
         <v>253</v>
@@ -3143,10 +3161,7 @@
         <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>355</v>
-      </c>
-      <c r="C65" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
         <v>256</v>
@@ -3156,102 +3171,102 @@
       </c>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65" t="s">
-        <v>491</v>
-      </c>
-      <c r="J65" t="s">
-        <v>258</v>
-      </c>
-      <c r="K65" t="s">
-        <v>259</v>
-      </c>
+      <c r="J65"/>
+      <c r="K65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" t="s">
+        <v>442</v>
+      </c>
+      <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
         <v>260</v>
-      </c>
-      <c r="B66" t="s">
-        <v>355</v>
-      </c>
-      <c r="C66" t="s">
-        <v>437</v>
-      </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" t="s">
-        <v>262</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="J66" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" t="s">
+        <v>361</v>
+      </c>
+      <c r="C67" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" t="s">
         <v>265</v>
-      </c>
-      <c r="B67" t="s">
-        <v>355</v>
-      </c>
-      <c r="C67" t="s">
-        <v>438</v>
-      </c>
-      <c r="D67" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" t="s">
-        <v>267</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K67" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s">
+        <v>361</v>
+      </c>
+      <c r="C68" t="s">
+        <v>444</v>
+      </c>
+      <c r="D68" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" t="s">
         <v>270</v>
-      </c>
-      <c r="B68" t="s">
-        <v>355</v>
-      </c>
-      <c r="C68" t="s">
-        <v>439</v>
-      </c>
-      <c r="D68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E68" t="s">
-        <v>272</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
-      <c r="J68"/>
-      <c r="K68"/>
+      <c r="I68" t="s">
+        <v>499</v>
+      </c>
+      <c r="J68" t="s">
+        <v>271</v>
+      </c>
+      <c r="K68" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>273</v>
       </c>
       <c r="B69" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C69" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D69" t="s">
         <v>274</v>
@@ -3261,123 +3276,123 @@
       </c>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="I69" t="s">
-        <v>494</v>
-      </c>
-      <c r="J69" t="s">
-        <v>276</v>
-      </c>
-      <c r="K69" t="s">
-        <v>277</v>
-      </c>
+      <c r="J69"/>
+      <c r="K69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" t="s">
+        <v>446</v>
+      </c>
+      <c r="D70" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" t="s">
         <v>278</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
-      </c>
-      <c r="C70" t="s">
-        <v>441</v>
-      </c>
-      <c r="D70" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" t="s">
-        <v>280</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="J70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" t="s">
+        <v>447</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
         <v>283</v>
-      </c>
-      <c r="B71" t="s">
-        <v>367</v>
-      </c>
-      <c r="C71" t="s">
-        <v>441</v>
-      </c>
-      <c r="D71" t="s">
-        <v>279</v>
-      </c>
-      <c r="E71" t="s">
-        <v>280</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="J71"/>
-      <c r="K71"/>
+      <c r="I71" t="s">
+        <v>501</v>
+      </c>
+      <c r="J71" t="s">
+        <v>284</v>
+      </c>
+      <c r="K71" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C72" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D72" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E72" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="I72" t="s">
-        <v>496</v>
-      </c>
-      <c r="J72" t="s">
-        <v>287</v>
-      </c>
-      <c r="K72" t="s">
-        <v>288</v>
-      </c>
+      <c r="J72"/>
+      <c r="K72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" t="s">
+        <v>361</v>
+      </c>
+      <c r="C73" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73" t="s">
         <v>289</v>
-      </c>
-      <c r="B73" t="s">
-        <v>368</v>
-      </c>
-      <c r="C73" t="s">
-        <v>443</v>
-      </c>
-      <c r="D73" t="s">
-        <v>290</v>
-      </c>
-      <c r="E73" t="s">
-        <v>291</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="J73"/>
-      <c r="K73"/>
+      <c r="I73" t="s">
+        <v>502</v>
+      </c>
+      <c r="J73" t="s">
+        <v>290</v>
+      </c>
+      <c r="K73" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D74" t="s">
         <v>293</v>
@@ -3395,10 +3410,10 @@
         <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D75" t="s">
         <v>296</v>
@@ -3408,46 +3423,46 @@
       </c>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="I75" t="s">
-        <v>497</v>
-      </c>
-      <c r="J75" t="s">
-        <v>298</v>
-      </c>
-      <c r="K75" t="s">
-        <v>299</v>
-      </c>
+      <c r="J75"/>
+      <c r="K75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
+        <v>361</v>
+      </c>
+      <c r="C76" t="s">
+        <v>451</v>
+      </c>
+      <c r="D76" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" t="s">
         <v>300</v>
-      </c>
-      <c r="B76" t="s">
-        <v>355</v>
-      </c>
-      <c r="C76" t="s">
-        <v>446</v>
-      </c>
-      <c r="D76" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" t="s">
-        <v>302</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="J76"/>
-      <c r="K76"/>
+      <c r="I76" t="s">
+        <v>503</v>
+      </c>
+      <c r="J76" t="s">
+        <v>301</v>
+      </c>
+      <c r="K76" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3465,16 +3480,16 @@
         <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C78" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
@@ -3483,13 +3498,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B79" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D79" t="s">
         <v>96</v>
@@ -3504,19 +3519,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C80" t="s">
-        <v>448</v>
+        <v>402</v>
       </c>
       <c r="D80" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
@@ -3528,16 +3543,16 @@
         <v>311</v>
       </c>
       <c r="B81" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E81" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3546,19 +3561,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82" t="s">
+        <v>375</v>
+      </c>
+      <c r="C82" t="s">
+        <v>454</v>
+      </c>
+      <c r="D82" t="s">
         <v>312</v>
       </c>
-      <c r="B82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C82" t="s">
-        <v>449</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>313</v>
-      </c>
-      <c r="E82" t="s">
-        <v>314</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3570,10 +3585,10 @@
         <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C83" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D83" t="s">
         <v>316</v>
@@ -3591,10 +3606,10 @@
         <v>318</v>
       </c>
       <c r="B84" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C84" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D84" t="s">
         <v>319</v>
@@ -3612,10 +3627,10 @@
         <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C85" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D85" t="s">
         <v>322</v>
@@ -3633,10 +3648,10 @@
         <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C86" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D86" t="s">
         <v>325</v>
@@ -3654,10 +3669,10 @@
         <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C87" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D87" t="s">
         <v>328</v>
@@ -3675,10 +3690,10 @@
         <v>330</v>
       </c>
       <c r="B88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C88" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D88" t="s">
         <v>331</v>
@@ -3696,10 +3711,10 @@
         <v>333</v>
       </c>
       <c r="B89" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C89" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
         <v>334</v>
@@ -3717,10 +3732,10 @@
         <v>336</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C90" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D90" t="s">
         <v>337</v>
@@ -3738,10 +3753,10 @@
         <v>339</v>
       </c>
       <c r="B91" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C91" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D91" t="s">
         <v>340</v>
@@ -3759,10 +3774,10 @@
         <v>342</v>
       </c>
       <c r="B92" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C92" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D92" t="s">
         <v>343</v>
@@ -3780,10 +3795,7 @@
         <v>345</v>
       </c>
       <c r="B93" t="s">
-        <v>355</v>
-      </c>
-      <c r="C93" t="s">
-        <v>460</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s">
         <v>346</v>
@@ -3801,16 +3813,16 @@
         <v>348</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C94" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D94" t="s">
         <v>349</v>
       </c>
       <c r="E94" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -3819,30 +3831,72 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C95" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D95" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="I95" t="s">
-        <v>498</v>
-      </c>
-      <c r="J95" t="s">
-        <v>353</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="J95"/>
+      <c r="K95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
         <v>354</v>
+      </c>
+      <c r="B96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C96" t="s">
+        <v>457</v>
+      </c>
+      <c r="D96" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" t="s">
+        <v>323</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>356</v>
+      </c>
+      <c r="B97" t="s">
+        <v>363</v>
+      </c>
+      <c r="C97" t="s">
+        <v>467</v>
+      </c>
+      <c r="D97" t="s">
+        <v>357</v>
+      </c>
+      <c r="E97" t="s">
+        <v>358</v>
+      </c>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97" t="s">
+        <v>504</v>
+      </c>
+      <c r="J97" t="s">
+        <v>359</v>
+      </c>
+      <c r="K97" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="527">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -302,6 +302,15 @@
     <t xml:space="preserve">野原</t>
   </si>
   <si>
+    <t xml:space="preserve">survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空</t>
+  </si>
+  <si>
     <t xml:space="preserve">nymelle</t>
   </si>
   <si>
@@ -440,6 +449,12 @@
     <t xml:space="preserve">パルミア大使館</t>
   </si>
   <si>
+    <t xml:space="preserve">You see the embassy of Palmia. The building is heavily guarded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルミア大使館が見える。建物は厳重に警備されている。</t>
+  </si>
+  <si>
     <t xml:space="preserve">aquli</t>
   </si>
   <si>
@@ -782,6 +797,21 @@
     <t xml:space="preserve">イークの洞窟</t>
   </si>
   <si>
+    <t xml:space="preserve">You see a cave inhabited by yeeks. The entrance is scarcely more than a hole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イークが住む洞窟だ。入口の穴はとても小さい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cave_fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest of the Lost Way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">帰らずの森</t>
+  </si>
+  <si>
     <t xml:space="preserve">temple_undersea</t>
   </si>
   <si>
@@ -902,6 +932,12 @@
     <t xml:space="preserve">風の眠る場所</t>
   </si>
   <si>
+    <t xml:space="preserve">You see a forest utterly still, without a single breath of wind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見慣れない木々がそびえ立っている。風一つ吹いていない静かな森だ。</t>
+  </si>
+  <si>
     <t xml:space="preserve">snowgrave</t>
   </si>
   <si>
@@ -909,6 +945,12 @@
   </si>
   <si>
     <t xml:space="preserve">永久凍土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this... the end of the world?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ここは…世界の果てだろうか？</t>
   </si>
   <si>
     <t xml:space="preserve">lumiest_graveyard</t>
@@ -1680,10 +1722,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1692,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1708,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1720,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1736,10 +1778,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1757,10 +1799,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1778,10 +1820,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1792,7 +1834,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1806,10 +1848,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1827,10 +1869,10 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1839,7 +1881,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1855,10 +1897,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1876,10 +1918,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1897,10 +1939,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1918,10 +1960,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1930,7 +1972,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1946,10 +1988,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -1958,7 +2000,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -1974,10 +2016,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -1986,7 +2028,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -2002,10 +2044,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -2014,7 +2056,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -2030,10 +2072,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -2051,10 +2093,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2063,7 +2105,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2079,10 +2121,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2100,10 +2142,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2121,10 +2163,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C21" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2142,10 +2184,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2163,10 +2205,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2184,10 +2226,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2205,10 +2247,7 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" t="s">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2218,102 +2257,102 @@
       </c>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" t="s">
-        <v>485</v>
-      </c>
-      <c r="J25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
+      <c r="J25"/>
+      <c r="K25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C26" t="s">
-        <v>408</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>102</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
         <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>369</v>
-      </c>
-      <c r="C27" t="s">
-        <v>409</v>
-      </c>
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
         <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>364</v>
-      </c>
-      <c r="C28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>112</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="J28"/>
-      <c r="K28"/>
+      <c r="I28" t="s">
+        <v>501</v>
+      </c>
+      <c r="J28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2331,10 +2370,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C30" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2344,74 +2383,74 @@
       </c>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" t="s">
-        <v>488</v>
-      </c>
-      <c r="J30" t="s">
-        <v>119</v>
-      </c>
-      <c r="K30" t="s">
-        <v>120</v>
-      </c>
+      <c r="J30"/>
+      <c r="K30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
         <v>121</v>
-      </c>
-      <c r="B31" t="s">
-        <v>364</v>
-      </c>
-      <c r="C31" t="s">
-        <v>413</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>123</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="J31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" t="s">
+        <v>427</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
         <v>126</v>
-      </c>
-      <c r="B32" t="s">
-        <v>364</v>
-      </c>
-      <c r="C32" t="s">
-        <v>414</v>
-      </c>
-      <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
       </c>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="J32"/>
-      <c r="K32"/>
+      <c r="I32" t="s">
+        <v>503</v>
+      </c>
+      <c r="J32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2429,10 +2468,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C34" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2450,10 +2489,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2471,10 +2510,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2492,10 +2531,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C37" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2505,9 +2544,6 @@
       </c>
       <c r="G37"/>
       <c r="H37"/>
-      <c r="I37" t="s">
-        <v>490</v>
-      </c>
       <c r="J37" t="s">
         <v>144</v>
       </c>
@@ -2520,10 +2556,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C38" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2533,24 +2569,31 @@
       </c>
       <c r="G38"/>
       <c r="H38"/>
-      <c r="J38"/>
-      <c r="K38"/>
+      <c r="I38" t="s">
+        <v>504</v>
+      </c>
+      <c r="J38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -2559,41 +2602,34 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="C40" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="D40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40" t="s">
-        <v>491</v>
-      </c>
-      <c r="J40" t="s">
-        <v>155</v>
-      </c>
-      <c r="K40" t="s">
-        <v>156</v>
-      </c>
+      <c r="J40"/>
+      <c r="K40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C41" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2604,7 +2640,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2618,10 +2654,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C42" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2632,7 +2668,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2646,10 +2682,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2660,7 +2696,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2674,10 +2710,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2688,7 +2724,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2702,10 +2738,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2716,7 +2752,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2730,10 +2766,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C46" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2744,7 +2780,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2758,10 +2794,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C47" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2772,7 +2808,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2786,10 +2822,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2800,7 +2836,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2814,10 +2850,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2828,7 +2864,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2842,10 +2878,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2855,46 +2891,46 @@
       </c>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="J50"/>
-      <c r="K50"/>
+      <c r="I50" t="s">
+        <v>514</v>
+      </c>
+      <c r="J50" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C51" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
-      <c r="I51" t="s">
-        <v>501</v>
-      </c>
-      <c r="J51" t="s">
-        <v>208</v>
-      </c>
-      <c r="K51" t="s">
-        <v>209</v>
-      </c>
+      <c r="J51"/>
+      <c r="K51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -2904,24 +2940,31 @@
       </c>
       <c r="G52"/>
       <c r="H52"/>
-      <c r="J52"/>
-      <c r="K52"/>
+      <c r="I52" t="s">
+        <v>515</v>
+      </c>
+      <c r="J52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K52" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C53" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="D53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -2930,41 +2973,34 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C54" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54" t="s">
-        <v>502</v>
-      </c>
-      <c r="J54" t="s">
-        <v>219</v>
-      </c>
-      <c r="K54" t="s">
-        <v>220</v>
-      </c>
+      <c r="J54"/>
+      <c r="K54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C55" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -2974,24 +3010,31 @@
       </c>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="J55"/>
-      <c r="K55"/>
+      <c r="I55" t="s">
+        <v>516</v>
+      </c>
+      <c r="J55" t="s">
+        <v>224</v>
+      </c>
+      <c r="K55" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -3000,19 +3043,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C57" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -3021,19 +3064,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C58" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -3042,19 +3085,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
@@ -3063,19 +3106,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -3084,41 +3127,34 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C61" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="D61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
-      <c r="I61" t="s">
-        <v>503</v>
-      </c>
-      <c r="J61" t="s">
-        <v>242</v>
-      </c>
-      <c r="K61" t="s">
-        <v>243</v>
-      </c>
+      <c r="J61"/>
+      <c r="K61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3129,7 +3165,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="J62" t="s">
         <v>247</v>
@@ -3143,10 +3179,10 @@
         <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C63" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D63" t="s">
         <v>250</v>
@@ -3156,24 +3192,31 @@
       </c>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="J63"/>
-      <c r="K63"/>
+      <c r="I63" t="s">
+        <v>518</v>
+      </c>
+      <c r="J63" t="s">
+        <v>252</v>
+      </c>
+      <c r="K63" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="D64" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
@@ -3182,90 +3225,77 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="J65"/>
-      <c r="K65"/>
+      <c r="J65" t="s">
+        <v>260</v>
+      </c>
+      <c r="K65" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s">
-        <v>364</v>
-      </c>
-      <c r="C66" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
-      <c r="I66" t="s">
-        <v>505</v>
-      </c>
-      <c r="J66" t="s">
-        <v>261</v>
-      </c>
-      <c r="K66" t="s">
-        <v>262</v>
-      </c>
+      <c r="J66"/>
+      <c r="K66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="C67" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E67" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
-      <c r="I67" t="s">
-        <v>506</v>
-      </c>
-      <c r="J67" t="s">
-        <v>266</v>
-      </c>
-      <c r="K67" t="s">
-        <v>267</v>
-      </c>
+      <c r="J67"/>
+      <c r="K67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C68" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D68" t="s">
         <v>269</v>
@@ -3276,7 +3306,7 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="J68" t="s">
         <v>271</v>
@@ -3290,10 +3320,10 @@
         <v>273</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D69" t="s">
         <v>274</v>
@@ -3303,129 +3333,136 @@
       </c>
       <c r="G69"/>
       <c r="H69"/>
-      <c r="J69"/>
-      <c r="K69"/>
+      <c r="I69" t="s">
+        <v>520</v>
+      </c>
+      <c r="J69" t="s">
+        <v>276</v>
+      </c>
+      <c r="K69" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C70" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="J70" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K70" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B71" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C71" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71" t="s">
-        <v>509</v>
-      </c>
-      <c r="J71" t="s">
-        <v>284</v>
-      </c>
-      <c r="K71" t="s">
-        <v>285</v>
-      </c>
+      <c r="J71"/>
+      <c r="K71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="C72" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
-      <c r="J72"/>
-      <c r="K72"/>
+      <c r="I72" t="s">
+        <v>522</v>
+      </c>
+      <c r="J72" t="s">
+        <v>289</v>
+      </c>
+      <c r="K72" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B73" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="C73" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="J73" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K73" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" t="s">
+        <v>391</v>
+      </c>
+      <c r="C74" t="s">
+        <v>467</v>
+      </c>
+      <c r="D74" t="s">
         <v>292</v>
       </c>
-      <c r="B74" t="s">
-        <v>378</v>
-      </c>
-      <c r="C74" t="s">
-        <v>455</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>293</v>
-      </c>
-      <c r="E74" t="s">
-        <v>294</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -3434,110 +3471,125 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B75" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C75" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E75" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="J75"/>
-      <c r="K75"/>
+      <c r="I75" t="s">
+        <v>524</v>
+      </c>
+      <c r="J75" t="s">
+        <v>300</v>
+      </c>
+      <c r="K75" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="C76" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="I76" t="s">
-        <v>511</v>
-      </c>
       <c r="J76" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K76" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C77" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
-      <c r="J77"/>
-      <c r="K77"/>
+      <c r="J77" t="s">
+        <v>310</v>
+      </c>
+      <c r="K77" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B78" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C78" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D78" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
-      <c r="J78"/>
-      <c r="K78"/>
+      <c r="I78" t="s">
+        <v>525</v>
+      </c>
+      <c r="J78" t="s">
+        <v>315</v>
+      </c>
+      <c r="K78" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -3546,19 +3598,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C80" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
@@ -3567,19 +3619,19 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="C81" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="D81" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="E81" t="s">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3588,19 +3640,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C82" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="E82" t="s">
-        <v>313</v>
+        <v>100</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3609,19 +3661,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C83" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D83" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E83" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
@@ -3630,19 +3682,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C84" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D84" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -3651,19 +3703,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="C85" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D85" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3672,19 +3724,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="C86" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D86" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="E86" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3693,19 +3745,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B87" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C87" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D87" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E87" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3714,19 +3766,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C88" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D88" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E88" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3735,19 +3787,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C89" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="D89" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E89" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3756,19 +3808,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B90" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C90" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D90" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="E90" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3777,19 +3829,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C91" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="D91" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E91" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3798,19 +3850,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C92" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D92" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E92" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3819,19 +3871,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="C93" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D93" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3840,19 +3892,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C94" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -3861,19 +3913,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C95" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -3882,19 +3934,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B96" t="s">
+        <v>390</v>
+      </c>
+      <c r="C96" t="s">
+        <v>486</v>
+      </c>
+      <c r="D96" t="s">
+        <v>363</v>
+      </c>
+      <c r="E96" t="s">
         <v>364</v>
-      </c>
-      <c r="C96" t="s">
-        <v>474</v>
-      </c>
-      <c r="D96" t="s">
-        <v>355</v>
-      </c>
-      <c r="E96" t="s">
-        <v>356</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -3903,19 +3955,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C97" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="D97" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E97" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -3924,30 +3976,72 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B98" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C98" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D98" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E98" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98" t="s">
-        <v>512</v>
-      </c>
-      <c r="J98" t="s">
-        <v>362</v>
-      </c>
-      <c r="K98" t="s">
-        <v>363</v>
+      <c r="J98"/>
+      <c r="K98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" t="s">
+        <v>398</v>
+      </c>
+      <c r="C99" t="s">
+        <v>478</v>
+      </c>
+      <c r="D99" t="s">
+        <v>372</v>
+      </c>
+      <c r="E99" t="s">
+        <v>340</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>373</v>
+      </c>
+      <c r="B100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" t="s">
+        <v>489</v>
+      </c>
+      <c r="D100" t="s">
+        <v>374</v>
+      </c>
+      <c r="E100" t="s">
+        <v>375</v>
+      </c>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100" t="s">
+        <v>526</v>
+      </c>
+      <c r="J100" t="s">
+        <v>376</v>
+      </c>
+      <c r="K100" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="544">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
@@ -260,10 +260,10 @@
     <t xml:space="preserve">startVillage2</t>
   </si>
   <si>
-    <t xml:space="preserve">Somewhere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どこか</t>
+    <t xml:space="preserve">Garden of Eternity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永遠の庭</t>
   </si>
   <si>
     <t xml:space="preserve">startVillage</t>
@@ -788,6 +788,12 @@
     <t xml:space="preserve">ミノタウロスの巣</t>
   </si>
   <si>
+    <t xml:space="preserve">It’s a minotaur’s lair. The entrance hole is enormous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミノタウロスの巣だ。入口の穴はとても大きい。</t>
+  </si>
+  <si>
     <t xml:space="preserve">cave_yeek</t>
   </si>
   <si>
@@ -821,6 +827,12 @@
     <t xml:space="preserve">ルーリエ海底神殿</t>
   </si>
   <si>
+    <t xml:space="preserve">You see an entrance leading to the ruins sunken beneath the sea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底に沈んだ遺跡への入口がある。</t>
+  </si>
+  <si>
     <t xml:space="preserve">lumiest</t>
   </si>
   <si>
@@ -851,6 +863,24 @@
     <t xml:space="preserve">寺院がある。神聖な雰囲気がする。</t>
   </si>
   <si>
+    <t xml:space="preserve">curryruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doga Ruins Camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドーガ遺跡キャンプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curryruin_dungeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory of Doga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドーガの工場</t>
+  </si>
+  <si>
     <t xml:space="preserve">miral_garok</t>
   </si>
   <si>
@@ -926,7 +956,7 @@
     <t xml:space="preserve">windrest</t>
   </si>
   <si>
-    <t xml:space="preserve">The Place Where Winds Rest</t>
+    <t xml:space="preserve">Where Winds Rest</t>
   </si>
   <si>
     <t xml:space="preserve">風の眠る場所</t>
@@ -1743,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1755,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1771,10 +1801,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1783,7 +1813,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1799,10 +1829,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1820,10 +1850,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1841,10 +1871,10 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1855,7 +1885,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
@@ -1869,10 +1899,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1890,10 +1920,10 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -1902,7 +1932,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="G9" t="s">
         <v>39</v>
@@ -1918,10 +1948,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1939,10 +1969,10 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1960,10 +1990,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1981,10 +2011,10 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1993,7 +2023,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -2009,10 +2039,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D14" t="s">
         <v>56</v>
@@ -2021,7 +2051,7 @@
         <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>
@@ -2037,10 +2067,10 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2049,7 +2079,7 @@
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -2065,10 +2095,10 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C16" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -2077,7 +2107,7 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
@@ -2093,10 +2123,10 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D17" t="s">
         <v>71</v>
@@ -2114,10 +2144,10 @@
         <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
@@ -2126,7 +2156,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -2142,10 +2172,10 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2163,10 +2193,10 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
@@ -2184,10 +2214,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C21" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -2205,10 +2235,10 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C22" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D22" t="s">
         <v>87</v>
@@ -2226,10 +2256,10 @@
         <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C23" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D23" t="s">
         <v>90</v>
@@ -2247,10 +2277,10 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C24" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -2268,10 +2298,10 @@
         <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
@@ -2289,10 +2319,10 @@
         <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C26" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="D26" t="s">
         <v>99</v>
@@ -2303,7 +2333,7 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="J26" t="s">
         <v>101</v>
@@ -2317,10 +2347,10 @@
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D27" t="s">
         <v>104</v>
@@ -2331,7 +2361,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="J27" t="s">
         <v>106</v>
@@ -2345,10 +2375,10 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C28" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="D28" t="s">
         <v>109</v>
@@ -2359,7 +2389,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="J28" t="s">
         <v>111</v>
@@ -2373,10 +2403,10 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -2394,10 +2424,10 @@
         <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -2415,10 +2445,10 @@
         <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C31" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="D31" t="s">
         <v>120</v>
@@ -2429,7 +2459,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="J31" t="s">
         <v>122</v>
@@ -2443,10 +2473,10 @@
         <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="D32" t="s">
         <v>125</v>
@@ -2457,7 +2487,7 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="J32" t="s">
         <v>127</v>
@@ -2471,10 +2501,10 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
         <v>130</v>
@@ -2492,10 +2522,10 @@
         <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
         <v>133</v>
@@ -2513,10 +2543,10 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -2534,10 +2564,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D36" t="s">
         <v>139</v>
@@ -2555,10 +2585,10 @@
         <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C37" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="D37" t="s">
         <v>142</v>
@@ -2569,7 +2599,7 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2583,10 +2613,10 @@
         <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C38" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="D38" t="s">
         <v>147</v>
@@ -2597,7 +2627,7 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="J38" t="s">
         <v>149</v>
@@ -2611,10 +2641,10 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D39" t="s">
         <v>152</v>
@@ -2632,10 +2662,10 @@
         <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C40" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="D40" t="s">
         <v>155</v>
@@ -2653,10 +2683,10 @@
         <v>157</v>
       </c>
       <c r="B41" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C41" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -2667,7 +2697,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="J41" t="s">
         <v>160</v>
@@ -2681,10 +2711,10 @@
         <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C42" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D42" t="s">
         <v>163</v>
@@ -2695,7 +2725,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="J42" t="s">
         <v>165</v>
@@ -2709,10 +2739,10 @@
         <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C43" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="D43" t="s">
         <v>168</v>
@@ -2723,7 +2753,7 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="J43" t="s">
         <v>170</v>
@@ -2737,10 +2767,10 @@
         <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C44" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D44" t="s">
         <v>173</v>
@@ -2751,7 +2781,7 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="J44" t="s">
         <v>175</v>
@@ -2765,10 +2795,10 @@
         <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C45" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D45" t="s">
         <v>178</v>
@@ -2779,7 +2809,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="J45" t="s">
         <v>180</v>
@@ -2793,10 +2823,10 @@
         <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C46" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -2807,7 +2837,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="J46" t="s">
         <v>185</v>
@@ -2821,10 +2851,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C47" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -2835,7 +2865,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="J47" t="s">
         <v>190</v>
@@ -2849,10 +2879,10 @@
         <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C48" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D48" t="s">
         <v>193</v>
@@ -2863,7 +2893,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="J48" t="s">
         <v>195</v>
@@ -2877,10 +2907,10 @@
         <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D49" t="s">
         <v>198</v>
@@ -2891,7 +2921,7 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="J49" t="s">
         <v>200</v>
@@ -2905,10 +2935,10 @@
         <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C50" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D50" t="s">
         <v>203</v>
@@ -2919,7 +2949,7 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="J50" t="s">
         <v>205</v>
@@ -2933,10 +2963,10 @@
         <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C51" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D51" t="s">
         <v>208</v>
@@ -2954,10 +2984,10 @@
         <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C52" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D52" t="s">
         <v>211</v>
@@ -2968,7 +2998,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="J52" t="s">
         <v>213</v>
@@ -2982,10 +3012,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C53" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D53" t="s">
         <v>216</v>
@@ -3003,10 +3033,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C54" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -3024,10 +3054,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C55" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -3038,7 +3068,7 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="J55" t="s">
         <v>224</v>
@@ -3052,10 +3082,10 @@
         <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C56" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D56" t="s">
         <v>227</v>
@@ -3073,10 +3103,10 @@
         <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C57" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D57" t="s">
         <v>230</v>
@@ -3094,10 +3124,10 @@
         <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D58" t="s">
         <v>233</v>
@@ -3115,10 +3145,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C59" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3136,10 +3166,10 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D60" t="s">
         <v>239</v>
@@ -3157,10 +3187,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C61" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3178,10 +3208,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3192,7 +3222,7 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="J62" t="s">
         <v>247</v>
@@ -3206,10 +3236,10 @@
         <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D63" t="s">
         <v>250</v>
@@ -3220,7 +3250,7 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="J63" t="s">
         <v>252</v>
@@ -3234,10 +3264,10 @@
         <v>254</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C64" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D64" t="s">
         <v>255</v>
@@ -3247,52 +3277,56 @@
       </c>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="J64"/>
-      <c r="K64"/>
+      <c r="J64" t="s">
+        <v>257</v>
+      </c>
+      <c r="K64" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C65" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D65" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="J65" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C66" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E66" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -3301,124 +3335,115 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C67" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
-      <c r="J67"/>
-      <c r="K67"/>
+      <c r="J67" t="s">
+        <v>270</v>
+      </c>
+      <c r="K67" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B68" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="J68" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K68" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B69" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="J69" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K69" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
-        <v>378</v>
-      </c>
-      <c r="C70" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E70" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
-      <c r="I70" t="s">
-        <v>526</v>
-      </c>
-      <c r="J70" t="s">
-        <v>281</v>
-      </c>
-      <c r="K70" t="s">
-        <v>282</v>
-      </c>
+      <c r="J70"/>
+      <c r="K70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
-      </c>
-      <c r="C71" t="s">
-        <v>468</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E71" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -3427,146 +3452,139 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E72" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="J72" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K72" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B73" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C73" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D73" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73" t="s">
-        <v>528</v>
-      </c>
-      <c r="J73" t="s">
-        <v>294</v>
-      </c>
-      <c r="K73" t="s">
-        <v>295</v>
-      </c>
+      <c r="J73"/>
+      <c r="K73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>296</v>
       </c>
       <c r="B74" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C74" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
-      <c r="J74"/>
-      <c r="K74"/>
+      <c r="I74" t="s">
+        <v>537</v>
+      </c>
+      <c r="J74" t="s">
+        <v>299</v>
+      </c>
+      <c r="K74" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="C75" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="J75" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K75" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" t="s">
+        <v>402</v>
+      </c>
+      <c r="C76" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" t="s">
         <v>302</v>
       </c>
-      <c r="B76" t="s">
-        <v>393</v>
-      </c>
-      <c r="C76" t="s">
-        <v>472</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>303</v>
-      </c>
-      <c r="E76" t="s">
-        <v>304</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
-      <c r="I76" t="s">
-        <v>530</v>
-      </c>
-      <c r="J76" t="s">
-        <v>305</v>
-      </c>
-      <c r="K76" t="s">
-        <v>306</v>
-      </c>
+      <c r="J76"/>
+      <c r="K76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>307</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C77" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D77" t="s">
         <v>308</v>
@@ -3577,7 +3595,7 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="J77" t="s">
         <v>310</v>
@@ -3591,10 +3609,10 @@
         <v>312</v>
       </c>
       <c r="B78" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C78" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D78" t="s">
         <v>313</v>
@@ -3605,7 +3623,7 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="J78" t="s">
         <v>315</v>
@@ -3619,10 +3637,10 @@
         <v>317</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D79" t="s">
         <v>318</v>
@@ -3632,45 +3650,59 @@
       </c>
       <c r="G79"/>
       <c r="H79"/>
-      <c r="J79"/>
-      <c r="K79"/>
+      <c r="I79" t="s">
+        <v>541</v>
+      </c>
+      <c r="J79" t="s">
+        <v>320</v>
+      </c>
+      <c r="K79" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C80" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G80"/>
       <c r="H80"/>
-      <c r="J80"/>
-      <c r="K80"/>
+      <c r="I80" t="s">
+        <v>542</v>
+      </c>
+      <c r="J80" t="s">
+        <v>325</v>
+      </c>
+      <c r="K80" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B81" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C81" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="D81" t="s">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="G81"/>
       <c r="H81"/>
@@ -3679,19 +3711,19 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="D82" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>332</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
@@ -3700,19 +3732,19 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B83" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C83" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="D83" t="s">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="E83" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
@@ -3721,19 +3753,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B84" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C84" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="D84" t="s">
-        <v>326</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -3742,19 +3774,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B85" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C85" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D85" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E85" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -3763,19 +3795,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B86" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C86" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D86" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E86" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3784,19 +3816,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B87" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="C87" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D87" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E87" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -3805,19 +3837,19 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B88" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="C88" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D88" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E88" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -3826,19 +3858,19 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C89" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D89" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E89" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -3847,19 +3879,19 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B90" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C90" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D90" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E90" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -3868,19 +3900,19 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C91" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D91" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E91" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -3889,19 +3921,19 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B92" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C92" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D92" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E92" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -3910,19 +3942,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C93" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -3931,19 +3963,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B94" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C94" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="D94" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E94" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -3952,19 +3984,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B95" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C95" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D95" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E95" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -3973,19 +4005,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B96" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C96" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="D96" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E96" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -3994,19 +4026,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
         <v>398</v>
       </c>
       <c r="C97" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D97" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E97" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -4015,19 +4047,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B98" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="C98" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D98" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E98" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -4036,19 +4068,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="D99" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E99" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4057,30 +4089,72 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B100" t="s">
+        <v>388</v>
+      </c>
+      <c r="C100" t="s">
+        <v>501</v>
+      </c>
+      <c r="D100" t="s">
+        <v>379</v>
+      </c>
+      <c r="E100" t="s">
         <v>380</v>
-      </c>
-      <c r="C100" t="s">
-        <v>492</v>
-      </c>
-      <c r="D100" t="s">
-        <v>374</v>
-      </c>
-      <c r="E100" t="s">
-        <v>375</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
-      <c r="I100" t="s">
-        <v>533</v>
-      </c>
-      <c r="J100" t="s">
-        <v>376</v>
-      </c>
-      <c r="K100" t="s">
-        <v>377</v>
+      <c r="J100"/>
+      <c r="K100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>381</v>
+      </c>
+      <c r="B101" t="s">
+        <v>409</v>
+      </c>
+      <c r="C101" t="s">
+        <v>491</v>
+      </c>
+      <c r="D101" t="s">
+        <v>382</v>
+      </c>
+      <c r="E101" t="s">
+        <v>350</v>
+      </c>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>383</v>
+      </c>
+      <c r="B102" t="s">
+        <v>390</v>
+      </c>
+      <c r="C102" t="s">
+        <v>502</v>
+      </c>
+      <c r="D102" t="s">
+        <v>384</v>
+      </c>
+      <c r="E102" t="s">
+        <v>385</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102" t="s">
+        <v>543</v>
+      </c>
+      <c r="J102" t="s">
+        <v>386</v>
+      </c>
+      <c r="K102" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>

--- a/Mod_Korean/Lang/KR/Game/Zone.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Zone.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">world</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ylva</t>
